--- a/data/trans_camb/P2A_ner_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_ner_R-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>4.874217330070192</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.505559933698233</v>
+        <v>1.505559933698235</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.094054997420988</v>
+        <v>-3.947231823828032</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.371737622990242</v>
+        <v>-1.150305509267439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4150326624384304</v>
+        <v>0.7564059906087012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.702814466877218</v>
+        <v>-2.407363401041833</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.669728579062949</v>
+        <v>5.98858765227017</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.304625975337107</v>
+        <v>-2.516957303252665</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.725720912524368</v>
+        <v>-2.850579477624012</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.809495422883576</v>
+        <v>3.124505707202385</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.5033638229970656</v>
+        <v>-0.5209222185103527</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3129091010028361</v>
+        <v>0.4852799602014011</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.53644304880372</v>
+        <v>3.698646260829551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.729257520216959</v>
+        <v>7.365213984401783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.519389769915819</v>
+        <v>2.383478882878176</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.52819714365104</v>
+        <v>11.80131595101384</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.533334595270913</v>
+        <v>2.445041190770572</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5248055492703294</v>
+        <v>0.5166259046119671</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.646297270481261</v>
+        <v>6.799255857268344</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.599794974046767</v>
+        <v>3.781191272276514</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.7139857657628544</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2205376349412646</v>
+        <v>0.2205376349412648</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5770420087262601</v>
+        <v>-0.5918560660988615</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2049696359147739</v>
+        <v>-0.1659996242801367</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05542016618939567</v>
+        <v>0.09240484128845899</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2850651513336718</v>
+        <v>-0.2691821028973662</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6055534977815213</v>
+        <v>0.6077823204249257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.25738519777716</v>
+        <v>-0.2779691691387625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3508639533739213</v>
+        <v>-0.3604288906468847</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3379555929275863</v>
+        <v>0.3878226513050973</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07144159594794973</v>
+        <v>-0.07601778824271485</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08864086087331437</v>
+        <v>0.1238906018541112</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8967990703034426</v>
+        <v>1.015737197978872</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.991175698249763</v>
+        <v>1.806329995567154</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3862022777707109</v>
+        <v>0.3588728057949991</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.715434347595934</v>
+        <v>1.875581007998732</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3894630056041742</v>
+        <v>0.3709942615555872</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08954797076837458</v>
+        <v>0.09642298457581365</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.135877298004206</v>
+        <v>1.171565886586249</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5875552196847581</v>
+        <v>0.6459801902093217</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.819074566879979</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0874190050690303</v>
+        <v>0.08741900506902961</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.058858878227253</v>
+        <v>-1.056943559799156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4466801903104096</v>
+        <v>-0.3700974900937623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.991437510130948</v>
+        <v>-2.043096394933775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.319597843125229</v>
+        <v>-1.515025665920695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.902576894192526</v>
+        <v>1.940180894500371</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.075611368140281</v>
+        <v>-1.236608297937776</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7286110399383234</v>
+        <v>-0.7618598470084479</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.614349212969343</v>
+        <v>1.384808750461388</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.024009582287255</v>
+        <v>-1.076292427807497</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.349596402154951</v>
+        <v>2.199759036076419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.898460170270961</v>
+        <v>2.916996858146912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9300029283987383</v>
+        <v>0.8169232674415827</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.233125738806752</v>
+        <v>2.397034322191306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.412600752045501</v>
+        <v>6.255936545736221</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.32258073298654</v>
+        <v>2.151243064971421</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.824820848576469</v>
+        <v>1.674616336779513</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.489178439794298</v>
+        <v>4.122770628628287</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.217067633254737</v>
+        <v>1.221349394931342</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.7696766745354972</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.02386753791589139</v>
+        <v>0.0238675379158912</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.267214667374249</v>
+        <v>-0.2746606530099181</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1240773981938274</v>
+        <v>-0.09651686966712769</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5083878314598473</v>
+        <v>-0.5196719520343102</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2771211758352197</v>
+        <v>-0.2926571561029354</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3205555319056689</v>
+        <v>0.3572948505822089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2050900582002707</v>
+        <v>-0.2439188707794644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1720019267068732</v>
+        <v>-0.1697851669474134</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3632788041780006</v>
+        <v>0.3403868172707485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2413900810123547</v>
+        <v>-0.2578582883515003</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.001627677324685</v>
+        <v>0.8805202141836505</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.152729056881478</v>
+        <v>1.199130898072232</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3992386399529634</v>
+        <v>0.357822881900394</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.685597778462147</v>
+        <v>0.7242047380704216</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.88143227259589</v>
+        <v>1.934283168509002</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7434331485803486</v>
+        <v>0.6592261233564003</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5864465881330672</v>
+        <v>0.5545650965004908</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.489424350049177</v>
+        <v>1.338800333653033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3970471837603012</v>
+        <v>0.3900617685875927</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6441178679188092</v>
+        <v>-0.6624278102122049</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1148958709591814</v>
+        <v>-0.2398764451343231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7136932585262145</v>
+        <v>-0.6392435348406889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.49668317405436</v>
+        <v>-1.505628832759123</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.216994067373297</v>
+        <v>2.876945044739574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8715656555033957</v>
+        <v>-0.7145820615875076</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.6170670032806723</v>
+        <v>-0.563901868806281</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.852281130532278</v>
+        <v>2.030203997701237</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.3506458592290608</v>
+        <v>-0.2756912270660238</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.20700979341788</v>
+        <v>2.209861379719435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.685177334386548</v>
+        <v>2.735872707831154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.799488642420691</v>
+        <v>1.814343504185747</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.580781025565815</v>
+        <v>1.474635650930374</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.803342927700399</v>
+        <v>7.71211667754729</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.171812316806938</v>
+        <v>2.201747504743318</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.442813707487242</v>
+        <v>1.490267246608938</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.674139171825473</v>
+        <v>4.728983555615083</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.618354221323433</v>
+        <v>1.724437886506836</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3051429110508526</v>
+        <v>-0.2892996064534858</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07568188829881249</v>
+        <v>-0.1175504467122021</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2986218577409551</v>
+        <v>-0.2922722903665661</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4306745470159013</v>
+        <v>-0.4187063547466465</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8709119855568315</v>
+        <v>0.7345817417206087</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2466089867790049</v>
+        <v>-0.2136376228647882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2374072807821035</v>
+        <v>-0.1983927615829722</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.7138220575634768</v>
+        <v>0.7531976641602659</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1385386252681042</v>
+        <v>-0.1065874536695114</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.658764296473475</v>
+        <v>1.723856164376026</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.014863554010404</v>
+        <v>2.098519542354839</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.405711593730276</v>
+        <v>1.37445371789061</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7411336324122982</v>
+        <v>0.7066749234315728</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.485005797876722</v>
+        <v>3.606900445065619</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.073882833843699</v>
+        <v>1.050193774924988</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7468179244929942</v>
+        <v>0.8110401377255168</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.499141558615521</v>
+        <v>2.486199920319391</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8936877811352922</v>
+        <v>0.947378759968058</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6805099511821315</v>
+        <v>-0.6454826804341252</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4497033473185343</v>
+        <v>-0.2795647080766799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08295219292267547</v>
+        <v>0.05270312690302895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.02830783820256</v>
+        <v>-2.706214369794106</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9702576033253467</v>
+        <v>1.126188327676778</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.28261889194319</v>
+        <v>-1.459221164395777</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.065129182579086</v>
+        <v>-1.131382856192077</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.168928734828447</v>
+        <v>1.086046353619211</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2751768253589081</v>
+        <v>0.1880407238927606</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.229090925728664</v>
+        <v>2.295420643360818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.001017863464254</v>
+        <v>3.135894800695341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.033677518307553</v>
+        <v>3.138590656063479</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.967291361327638</v>
+        <v>2.143590772345028</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.010576544574564</v>
+        <v>7.18556371695524</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.277293496966708</v>
+        <v>3.149560264905372</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.69536247910232</v>
+        <v>1.561686385644485</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.434273926320655</v>
+        <v>4.561575116346799</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.936432759628492</v>
+        <v>2.698125152497651</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.44973213884441</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4803739506806586</v>
+        <v>0.4803739506806583</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1692082100776277</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4909620969256958</v>
+        <v>-0.5043267253922231</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.41838169519494</v>
+        <v>-0.4348901991089889</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.08816824325494664</v>
+        <v>-0.1556980619832887</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7040059279653491</v>
+        <v>-0.651365252607583</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1562411219844453</v>
+        <v>0.1300314342979388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2835225637569917</v>
+        <v>-0.3195051831096086</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4595462117847203</v>
+        <v>-0.4251756901842924</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3718214054288561</v>
+        <v>0.3196193356756756</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06807386025610794</v>
+        <v>0.05173449325646202</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.870517084182407</v>
+        <v>5.320678675947666</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.640317580184517</v>
+        <v>6.300905742365284</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.498050398860446</v>
+        <v>7.509343051280612</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.33412578357491</v>
+        <v>1.812904468444679</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.492292923971273</v>
+        <v>5.143597908218333</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.35078285007388</v>
+        <v>1.958246859425252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.517835759913449</v>
+        <v>1.330771124693174</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.779401792005835</v>
+        <v>4.000766322373708</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.938604196072062</v>
+        <v>2.408465163839272</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>4.066064975377405</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4093435274590398</v>
+        <v>0.4093435274590406</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4971641917134833</v>
+        <v>-0.48711822309918</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.742020867398437</v>
+        <v>0.7549636792980008</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.1822054818166202</v>
+        <v>-0.158622045018905</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7334157348603934</v>
+        <v>-0.8535027363269443</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.079540577652912</v>
+        <v>5.020481820117635</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8594760762909657</v>
+        <v>-0.8788630683650888</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.4331961021973266</v>
+        <v>-0.367211086416568</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.285029725270652</v>
+        <v>3.233762221395643</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.2811710968201305</v>
+        <v>-0.268172147728717</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.12347643234478</v>
+        <v>1.200493025090513</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.512606455483843</v>
+        <v>2.679553539838879</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.519306391003754</v>
+        <v>1.582557821827713</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.326387686359759</v>
+        <v>1.24111262878081</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.662542425422371</v>
+        <v>7.684633269903728</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.118046526210355</v>
+        <v>1.053394336320734</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9720269497174248</v>
+        <v>1.034635205495171</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.854026759203438</v>
+        <v>4.84526976768382</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.072053097252804</v>
+        <v>1.084279985679963</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>1.089917661395181</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1097254330309859</v>
+        <v>0.1097254330309861</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1625703629175404</v>
+        <v>-0.1643020635639205</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2192083449181423</v>
+        <v>0.2407665334372014</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06311470818413868</v>
+        <v>-0.05372057253943638</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1463606342171837</v>
+        <v>-0.1630485911689387</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9606445458487725</v>
+        <v>0.9700270658056009</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1628516473935795</v>
+        <v>-0.1678188702651239</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1085582460491139</v>
+        <v>-0.08876268246481386</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.8032313304072769</v>
+        <v>0.7821587784561334</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.07202640431354797</v>
+        <v>-0.06394956063647737</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4726990374417513</v>
+        <v>0.5318758960501804</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.044974619773818</v>
+        <v>1.132200818370845</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6339195995653243</v>
+        <v>0.6533351953681582</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3277455621606218</v>
+        <v>0.3010525465555364</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.874574157403236</v>
+        <v>1.888579849179998</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2642068149519569</v>
+        <v>0.2563601145544749</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2868600387267098</v>
+        <v>0.3085990044978207</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.442228172096203</v>
+        <v>1.446251344935726</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.313801183116955</v>
+        <v>0.3160008895125032</v>
       </c>
     </row>
     <row r="34">
